--- a/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2757</v>
+        <v>2735</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12441</v>
+        <v>12043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0555576383932425</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02397375464114158</v>
+        <v>0.02378521335506551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1081928085510444</v>
+        <v>0.1047355085576353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9091</v>
+        <v>9145</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0223581356134331</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00671223699555019</v>
+        <v>0.006705765379652151</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06079609001855125</v>
+        <v>0.0611542353563442</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>9732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4841</v>
+        <v>4700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17569</v>
+        <v>17050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03678998350220242</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01830074061068398</v>
+        <v>0.01776690343445187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06641653074499181</v>
+        <v>0.06445525069655474</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>108600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102548</v>
+        <v>102946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112232</v>
+        <v>112254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9444423616067575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8918071914489559</v>
+        <v>0.8952644914423648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9760262453588584</v>
+        <v>0.9762147866449346</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -836,19 +836,19 @@
         <v>146192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140444</v>
+        <v>140390</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148531</v>
+        <v>148532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9776418643865669</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9392039099814485</v>
+        <v>0.9388457646436565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9932877630044498</v>
+        <v>0.9932942346203478</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>260</v>
@@ -857,19 +857,19 @@
         <v>254792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>246955</v>
+        <v>247474</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>259683</v>
+        <v>259824</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9632100164977976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9335834692550081</v>
+        <v>0.9355447493034453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.981699259389316</v>
+        <v>0.9822330965655482</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4807</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1880</v>
+        <v>1835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10436</v>
+        <v>10439</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03294938180883247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01288656799580943</v>
+        <v>0.01257515306859631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07153370425908002</v>
+        <v>0.07155134917437687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5539</v>
+        <v>5461</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20443</v>
+        <v>19381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05860230278371909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03031847135949774</v>
+        <v>0.02989239326328965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1119036049547712</v>
+        <v>0.1060910432112296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1003,19 +1003,19 @@
         <v>15512</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9015</v>
+        <v>9260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25357</v>
+        <v>25840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04721205863433118</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02743875892554073</v>
+        <v>0.02818200064329741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07717512044149408</v>
+        <v>0.07864483378319392</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>141082</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135453</v>
+        <v>135450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144009</v>
+        <v>144054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9670506181911676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9284662957409183</v>
+        <v>0.928448650825623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9871134320041905</v>
+        <v>0.9874248469314036</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>160</v>
@@ -1053,19 +1053,19 @@
         <v>171975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>162237</v>
+        <v>163299</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>177141</v>
+        <v>177219</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9413976972162809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8880963950452291</v>
+        <v>0.8939089567887705</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9696815286405026</v>
+        <v>0.9701076067367104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>301</v>
@@ -1074,19 +1074,19 @@
         <v>313056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>303211</v>
+        <v>302728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>319553</v>
+        <v>319308</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9527879413656688</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9228248795585066</v>
+        <v>0.9213551662168064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9725612410744593</v>
+        <v>0.9718179993567027</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5039</v>
+        <v>4946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009446971128093892</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04827920640839144</v>
+        <v>0.0473872314033457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>6038</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2076</v>
+        <v>2274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12165</v>
+        <v>12574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04444404657820557</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0152845234461793</v>
+        <v>0.01674004016862003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08954728372809317</v>
+        <v>0.09255941103756526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1220,19 +1220,19 @@
         <v>7024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3094</v>
+        <v>2975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13901</v>
+        <v>13590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02923853457339482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01287871943203499</v>
+        <v>0.01238398436961474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05786730870693323</v>
+        <v>0.0565746265015508</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>103385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99332</v>
+        <v>99425</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>104371</v>
@@ -1258,7 +1258,7 @@
         <v>0.9905530288719061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9517207935916087</v>
+        <v>0.9526127685966543</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>129812</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>123685</v>
+        <v>123276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133774</v>
+        <v>133576</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9555559534217944</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9104527162719068</v>
+        <v>0.9074405889624361</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9847154765538205</v>
+        <v>0.98325995983138</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>235</v>
@@ -1291,19 +1291,19 @@
         <v>233197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226320</v>
+        <v>226631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237127</v>
+        <v>237246</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9707614654266051</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9421326912930668</v>
+        <v>0.9434253734984492</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.987121280567965</v>
+        <v>0.9876160156303853</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3287</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7564</v>
+        <v>7522</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0239564171872824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005985837069483187</v>
+        <v>0.006000784309737242</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05512560987331468</v>
+        <v>0.05481686312233235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1416,19 +1416,19 @@
         <v>7280</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3103</v>
+        <v>3037</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14400</v>
+        <v>13994</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03486873108655301</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01486314526458561</v>
+        <v>0.01454509679443861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06897117200883822</v>
+        <v>0.06702817613353718</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1437,19 +1437,19 @@
         <v>10567</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5627</v>
+        <v>5546</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18091</v>
+        <v>18251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03054103802893252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01626269541002058</v>
+        <v>0.0160294505666269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05228805009620659</v>
+        <v>0.05274824873519378</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>133930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>129653</v>
+        <v>129695</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136396</v>
+        <v>136394</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9760435828127176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9448743901266864</v>
+        <v>0.9451831368776675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9940141629305168</v>
+        <v>0.9939992156902627</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -1487,19 +1487,19 @@
         <v>201497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194377</v>
+        <v>194783</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205674</v>
+        <v>205740</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.965131268913447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9310288279911618</v>
+        <v>0.9329718238664629</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9851368547354143</v>
+        <v>0.9854549032055614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>345</v>
@@ -1508,19 +1508,19 @@
         <v>335428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>327904</v>
+        <v>327744</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>340368</v>
+        <v>340449</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9694589619710675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9477119499037934</v>
+        <v>0.9472517512648062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9837373045899794</v>
+        <v>0.983970549433373</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15469</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9177</v>
+        <v>9901</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24451</v>
+        <v>24848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03078553080878009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01826391542892521</v>
+        <v>0.01970541533937428</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04866117329393109</v>
+        <v>0.0494528093214738</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1633,19 +1633,19 @@
         <v>27366</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17552</v>
+        <v>18554</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38695</v>
+        <v>40174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04043231174706541</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02593164612697657</v>
+        <v>0.02741279307595707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05716940224508994</v>
+        <v>0.05935484914251669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -1654,19 +1654,19 @@
         <v>42835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31236</v>
+        <v>31094</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57154</v>
+        <v>57075</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03632212215309295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02648636264773876</v>
+        <v>0.02636632816137748</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04846369327719988</v>
+        <v>0.04839666032135107</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>486997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>478015</v>
+        <v>477618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>493289</v>
+        <v>492565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9692144691912199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.951338826706069</v>
+        <v>0.9505471906785258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9817360845710749</v>
+        <v>0.9802945846606257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>635</v>
@@ -1704,19 +1704,19 @@
         <v>649476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>638147</v>
+        <v>636668</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>659290</v>
+        <v>658288</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9595676882529346</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9428305977549101</v>
+        <v>0.9406451508574833</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9740683538730235</v>
+        <v>0.972587206924043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1141</v>
@@ -1725,19 +1725,19 @@
         <v>1136473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1122154</v>
+        <v>1122233</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1148072</v>
+        <v>1148214</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9636778778469071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9515363067228009</v>
+        <v>0.9516033396786487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9735136373522614</v>
+        <v>0.9736336718386225</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>5368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2096</v>
+        <v>1134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12331</v>
+        <v>10911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03846782564093209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0150232185180648</v>
+        <v>0.008129584156976869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08836487847036528</v>
+        <v>0.078191988978805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2090,19 +2090,19 @@
         <v>15090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8405</v>
+        <v>8610</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24159</v>
+        <v>24124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09047497681996952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05039159251814673</v>
+        <v>0.0516231994347341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1448481090583253</v>
+        <v>0.1446412272507751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2111,19 +2111,19 @@
         <v>20458</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12690</v>
+        <v>12649</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30424</v>
+        <v>30541</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06678364490768793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0414251930872628</v>
+        <v>0.04129313580336758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09931545319805529</v>
+        <v>0.09969714702472428</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>134179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127216</v>
+        <v>128636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>137451</v>
+        <v>138413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9615321743590679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9116351215296349</v>
+        <v>0.9218080110211949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9849767814819351</v>
+        <v>0.991870415843023</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -2161,19 +2161,19 @@
         <v>151697</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142628</v>
+        <v>142663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158382</v>
+        <v>158177</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9095250231800305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8551518909416753</v>
+        <v>0.8553587727492246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9496084074818537</v>
+        <v>0.9483768005652659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>267</v>
@@ -2182,19 +2182,19 @@
         <v>285876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>275910</v>
+        <v>275793</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>293644</v>
+        <v>293685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.933216355092312</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9006845468019448</v>
+        <v>0.9003028529752759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9585748069127372</v>
+        <v>0.9587068641966328</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>12893</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6585</v>
+        <v>7379</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20939</v>
+        <v>21841</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08324892690789866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04251944108211757</v>
+        <v>0.04764605050154276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1351989465469775</v>
+        <v>0.141021852216579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2307,19 +2307,19 @@
         <v>26582</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17717</v>
+        <v>18043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38217</v>
+        <v>37011</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1388677031092687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09255388583244747</v>
+        <v>0.09425668643826163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1996505429580198</v>
+        <v>0.1933503940975111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -2328,19 +2328,19 @@
         <v>39475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28435</v>
+        <v>28277</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53169</v>
+        <v>52528</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1139928050905202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08211101687320672</v>
+        <v>0.0816544178938652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1535355973862902</v>
+        <v>0.1516842548788224</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>141985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133939</v>
+        <v>133037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148293</v>
+        <v>147499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9167510730921014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8648010534530223</v>
+        <v>0.8589781477834211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9574805589178823</v>
+        <v>0.9523539494984573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -2378,19 +2378,19 @@
         <v>164838</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>153203</v>
+        <v>154409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>173703</v>
+        <v>173377</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8611322968907312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8003494570419802</v>
+        <v>0.8066496059024886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9074461141675525</v>
+        <v>0.9057433135617383</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>279</v>
@@ -2399,19 +2399,19 @@
         <v>306823</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>293129</v>
+        <v>293770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>317863</v>
+        <v>318021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8860071949094798</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8464644026137098</v>
+        <v>0.8483157451211777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9178889831267933</v>
+        <v>0.9183455821061349</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>7571</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3176</v>
+        <v>3082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15652</v>
+        <v>15975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07308037776642418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.030661286136035</v>
+        <v>0.02975442230962623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1510797848173955</v>
+        <v>0.154203607159124</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -2524,19 +2524,19 @@
         <v>19254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11939</v>
+        <v>11536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30008</v>
+        <v>29487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1365370940905001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08466475987321544</v>
+        <v>0.08180134184355421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2127971761775104</v>
+        <v>0.2091005965408242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2545,19 +2545,19 @@
         <v>26825</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17423</v>
+        <v>17913</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39121</v>
+        <v>38878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1096624059489126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07122513646324415</v>
+        <v>0.07323074764344982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1599275624123219</v>
+        <v>0.1589356334675077</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>96027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>87946</v>
+        <v>87623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100422</v>
+        <v>100516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9269196222335758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8489202151826051</v>
+        <v>0.8457963928408783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9693387138639651</v>
+        <v>0.9702455776903738</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -2595,19 +2595,19 @@
         <v>121765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111011</v>
+        <v>111532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129080</v>
+        <v>129483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8634629059094998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7872028238224895</v>
+        <v>0.7908994034591758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9153352401267846</v>
+        <v>0.9181986581564457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -2616,19 +2616,19 @@
         <v>217792</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>205496</v>
+        <v>205739</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>227194</v>
+        <v>226704</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8903375940510874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.840072437587678</v>
+        <v>0.8410643665324924</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9287748635367558</v>
+        <v>0.9267692523565502</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>9161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4026</v>
+        <v>4128</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18168</v>
+        <v>18327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05668190594286739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02490994821019408</v>
+        <v>0.02554020895979542</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.11241536874731</v>
+        <v>0.1133978239099587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -2741,19 +2741,19 @@
         <v>17597</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10339</v>
+        <v>10549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27430</v>
+        <v>28582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07219309668935697</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04241673848314987</v>
+        <v>0.04327698000783363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1125346242759862</v>
+        <v>0.1172594954705693</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -2762,19 +2762,19 @@
         <v>26758</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16951</v>
+        <v>17321</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38350</v>
+        <v>39086</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0660089715603446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0418167749437247</v>
+        <v>0.04272959321841903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09460669043689912</v>
+        <v>0.09642273457124573</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>152452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143445</v>
+        <v>143286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>157587</v>
+        <v>157485</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9433180940571326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.88758463125269</v>
+        <v>0.8866021760900417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975090051789806</v>
+        <v>0.9744597910402045</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -2812,19 +2812,19 @@
         <v>226153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>216320</v>
+        <v>215168</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>233411</v>
+        <v>233201</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9278069033106431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8874653757240138</v>
+        <v>0.8827405045294306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9575832615168502</v>
+        <v>0.9567230199921664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>354</v>
@@ -2833,19 +2833,19 @@
         <v>378605</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>367013</v>
+        <v>366277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>388412</v>
+        <v>388042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9339910284396554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9053933095631014</v>
+        <v>0.9035772654287547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9581832250562754</v>
+        <v>0.9572704067815812</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>34993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24613</v>
+        <v>23993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48171</v>
+        <v>47952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06252815223136708</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04398036274270583</v>
+        <v>0.04287187923239322</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08607469512090239</v>
+        <v>0.08568457827733147</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -2958,19 +2958,19 @@
         <v>78523</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61050</v>
+        <v>60690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97757</v>
+        <v>96024</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1056878049742433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08216990844749889</v>
+        <v>0.0816847711868993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1315755077599474</v>
+        <v>0.1292425276494208</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -2979,19 +2979,19 @@
         <v>113516</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>93265</v>
+        <v>94263</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136941</v>
+        <v>135784</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08714526160233066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07159823578001577</v>
+        <v>0.07236440647329997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1051279014774795</v>
+        <v>0.1042400574421543</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>524644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>511466</v>
+        <v>511685</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>535024</v>
+        <v>535644</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9374718477686329</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9139253048790973</v>
+        <v>0.9143154217226689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9560196372572941</v>
+        <v>0.9571281207676069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>623</v>
@@ -3029,19 +3029,19 @@
         <v>664452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>645218</v>
+        <v>646951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>681925</v>
+        <v>682285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8943121950257568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8684244922400524</v>
+        <v>0.8707574723505792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9178300915525006</v>
+        <v>0.9183152288131007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1096</v>
@@ -3050,19 +3050,19 @@
         <v>1189096</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1165671</v>
+        <v>1166828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1209347</v>
+        <v>1208349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9128547383976693</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8948720985225203</v>
+        <v>0.8957599425578454</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.928401764219984</v>
+        <v>0.9276355935266999</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>7794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3595</v>
+        <v>4081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14541</v>
+        <v>14341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05700248806670839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02629129940395895</v>
+        <v>0.02984686861467899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1063436994298703</v>
+        <v>0.1048860652609718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3415,19 +3415,19 @@
         <v>12800</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6955</v>
+        <v>6897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22084</v>
+        <v>20775</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07381980115033232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04011003330076007</v>
+        <v>0.03977832339716061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.127367700196887</v>
+        <v>0.1198150100744874</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3436,19 +3436,19 @@
         <v>20594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13028</v>
+        <v>13139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29910</v>
+        <v>30677</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06640505047637353</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04200765185163612</v>
+        <v>0.0423679728498686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09644488406176925</v>
+        <v>0.0989175140570218</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>128940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122193</v>
+        <v>122393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133139</v>
+        <v>132653</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9429975119332916</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8936563005701298</v>
+        <v>0.8951139347390282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.973708700596041</v>
+        <v>0.970153131385321</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -3486,19 +3486,19 @@
         <v>160591</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151307</v>
+        <v>152616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166436</v>
+        <v>166494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9261801988496677</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8726322998031126</v>
+        <v>0.8801849899255125</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9598899666992399</v>
+        <v>0.9602216766028394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>285</v>
@@ -3507,19 +3507,19 @@
         <v>289531</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>280215</v>
+        <v>279448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297097</v>
+        <v>296986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9335949495236264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9035551159382303</v>
+        <v>0.9010824859429782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9579923481483639</v>
+        <v>0.9576320271501313</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>5222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1785</v>
+        <v>2507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10482</v>
+        <v>10959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03165701900067834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01082251234131862</v>
+        <v>0.01519736496364324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.063547065242215</v>
+        <v>0.06644045434306002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3632,19 +3632,19 @@
         <v>13855</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7146</v>
+        <v>7503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25805</v>
+        <v>25523</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06321912042150131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03260493404402733</v>
+        <v>0.03423685823410911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1177416635140153</v>
+        <v>0.1164553468909019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -3653,19 +3653,19 @@
         <v>19077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10664</v>
+        <v>11294</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29403</v>
+        <v>30538</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04966581305044875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02776217329672663</v>
+        <v>0.0294045602841275</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0765501112711976</v>
+        <v>0.0795045435501434</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>159719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154459</v>
+        <v>153982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163156</v>
+        <v>162434</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9683429809993217</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.936452934757785</v>
+        <v>0.9335595456569412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9891774876586814</v>
+        <v>0.9848026350363568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>172</v>
@@ -3703,19 +3703,19 @@
         <v>205308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193358</v>
+        <v>193640</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212017</v>
+        <v>211660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9367808795784986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8822583364859847</v>
+        <v>0.8835446531090984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9673950659559727</v>
+        <v>0.965763141765891</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>341</v>
@@ -3724,19 +3724,19 @@
         <v>365027</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>354701</v>
+        <v>353566</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>373440</v>
+        <v>372810</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9503341869495513</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9234498887288021</v>
+        <v>0.9204954564498565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9722378267032734</v>
+        <v>0.9705954397158724</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>6019</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2364</v>
+        <v>2194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11830</v>
+        <v>12495</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05232280528856361</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0205468408142986</v>
+        <v>0.01906964775419511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1028415744825639</v>
+        <v>0.1086166272085725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3849,19 +3849,19 @@
         <v>13545</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7360</v>
+        <v>7358</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23924</v>
+        <v>22532</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09499176814341209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0516127301884084</v>
+        <v>0.05160205541773286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1677720936580696</v>
+        <v>0.1580162691502854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3870,19 +3870,19 @@
         <v>19564</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12131</v>
+        <v>11529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31126</v>
+        <v>30901</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07593961581313705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04708737822107421</v>
+        <v>0.04475121979147263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1208163789828321</v>
+        <v>0.1199412295335032</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>109016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103205</v>
+        <v>102540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112671</v>
+        <v>112841</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9476771947114364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8971584255174352</v>
+        <v>0.8913833727914274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9794531591857013</v>
+        <v>0.9809303522458048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -3920,19 +3920,19 @@
         <v>129051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118672</v>
+        <v>120064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135236</v>
+        <v>135238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9050082318565879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8322279063419304</v>
+        <v>0.8419837308497157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9483872698115916</v>
+        <v>0.9483979445822671</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>215</v>
@@ -3941,19 +3941,19 @@
         <v>238067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226505</v>
+        <v>226730</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245500</v>
+        <v>246102</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.924060384186863</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8791836210171682</v>
+        <v>0.8800587704664972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9529126217789259</v>
+        <v>0.9552487802085273</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>2807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8029</v>
+        <v>8523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01607730462697375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004369770974274945</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04598274048204671</v>
+        <v>0.04881097534668586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4066,19 +4066,19 @@
         <v>13206</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6524</v>
+        <v>6360</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24977</v>
+        <v>23976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05439318893496824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02687221757612324</v>
+        <v>0.02619698018235249</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1028803766864227</v>
+        <v>0.09875724657709449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4087,19 +4087,19 @@
         <v>16013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8127</v>
+        <v>8244</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27998</v>
+        <v>27266</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03836381113160558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0194696885932947</v>
+        <v>0.01975006731886167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06707603346752834</v>
+        <v>0.06532263462119267</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>171811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166589</v>
+        <v>166095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173855</v>
+        <v>174618</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9839226953730262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9540172595179534</v>
+        <v>0.9511890246533143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956302290257251</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -4137,19 +4137,19 @@
         <v>229575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217804</v>
+        <v>218805</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236257</v>
+        <v>236421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9456068110650317</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8971196233135773</v>
+        <v>0.9012427534229055</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9731277824238768</v>
+        <v>0.9738030198176475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>376</v>
@@ -4158,19 +4158,19 @@
         <v>401387</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>389402</v>
+        <v>390134</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>409273</v>
+        <v>409156</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9616361888683944</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9329239665324717</v>
+        <v>0.9346773653788074</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9805303114067053</v>
+        <v>0.9802499326811384</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>21842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14361</v>
+        <v>14012</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31366</v>
+        <v>30937</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03693728786044777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02428582029756736</v>
+        <v>0.02369610530868747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05304403587404487</v>
+        <v>0.05231734419042662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -4283,19 +4283,19 @@
         <v>53406</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38084</v>
+        <v>38867</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68462</v>
+        <v>72647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06865140214039389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04895554843587688</v>
+        <v>0.04996232495392537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08800521869244551</v>
+        <v>0.09338487918042566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -4304,19 +4304,19 @@
         <v>75248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58369</v>
+        <v>58349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96130</v>
+        <v>95326</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05495534920927032</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04262804685368558</v>
+        <v>0.04261360663764485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07020549810786976</v>
+        <v>0.06961853435274629</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>569486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>559962</v>
+        <v>560391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>576967</v>
+        <v>577316</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9630627121395522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9469559641259552</v>
+        <v>0.9476826558095734</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9757141797024327</v>
+        <v>0.9763038946913125</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>614</v>
@@ -4354,19 +4354,19 @@
         <v>724525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>709469</v>
+        <v>705284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>739847</v>
+        <v>739064</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9313485978596061</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9119947813075544</v>
+        <v>0.9066151208195746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9510444515641231</v>
+        <v>0.9500376750460755</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1217</v>
@@ -4375,19 +4375,19 @@
         <v>1294011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1273129</v>
+        <v>1273933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1310890</v>
+        <v>1310910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9450446507907296</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9297945018921301</v>
+        <v>0.9303814656472538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9573719531463144</v>
+        <v>0.9573863933623551</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>11177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6858</v>
+        <v>6715</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16230</v>
+        <v>17394</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06844068738472596</v>
+        <v>0.06844068738472595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04199549175282628</v>
+        <v>0.04111456221797866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09937776544060543</v>
+        <v>0.1065044546860867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -4740,19 +4740,19 @@
         <v>25543</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19022</v>
+        <v>19391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32632</v>
+        <v>32401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1337105144850549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0995765534351601</v>
+        <v>0.1015063602181694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1708236476284784</v>
+        <v>0.169611646516595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -4761,19 +4761,19 @@
         <v>36720</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28931</v>
+        <v>28844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46041</v>
+        <v>46112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1036281263071052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0816458019211611</v>
+        <v>0.08140083583647884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1299340952479446</v>
+        <v>0.130134745094818</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>152137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147084</v>
+        <v>145920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156456</v>
+        <v>156599</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9315593126152741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9006222345593946</v>
+        <v>0.8934955453139136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9580045082471738</v>
+        <v>0.9588854377820214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>386</v>
@@ -4811,19 +4811,19 @@
         <v>165486</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>158397</v>
+        <v>158628</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>172007</v>
+        <v>171638</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8662894855149449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8291763523715214</v>
+        <v>0.8303883534834051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.90042344656484</v>
+        <v>0.8984936397818305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>620</v>
@@ -4832,19 +4832,19 @@
         <v>317623</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>308302</v>
+        <v>308231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>325412</v>
+        <v>325499</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8963718736928948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8700659047520558</v>
+        <v>0.869865254905182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.918354198078839</v>
+        <v>0.9185991641635208</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>9231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5236</v>
+        <v>5385</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15339</v>
+        <v>14980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05179914390169961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02938365598754341</v>
+        <v>0.03021805033666134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08607366053378362</v>
+        <v>0.08405933018734106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -4957,19 +4957,19 @@
         <v>25212</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18870</v>
+        <v>19089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32382</v>
+        <v>33827</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1043274874457713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07808338207374824</v>
+        <v>0.07899087809258101</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.133998694378363</v>
+        <v>0.1399757136185542</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -4978,19 +4978,19 @@
         <v>34443</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27059</v>
+        <v>27087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43926</v>
+        <v>43603</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08203286476322287</v>
+        <v>0.08203286476322286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06444766374963279</v>
+        <v>0.06451333549495715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1046188790144844</v>
+        <v>0.1038490091212701</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>168973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>162865</v>
+        <v>163224</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172968</v>
+        <v>172819</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9482008560983004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9139263394662165</v>
+        <v>0.915940669812659</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9706163440124566</v>
+        <v>0.9697819496633384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>400</v>
@@ -5028,19 +5028,19 @@
         <v>216450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209280</v>
+        <v>207835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222792</v>
+        <v>222573</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8956725125542286</v>
+        <v>0.8956725125542288</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8660013056216369</v>
+        <v>0.8600242863814453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9219166179262518</v>
+        <v>0.921009121907419</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>639</v>
@@ -5049,19 +5049,19 @@
         <v>385423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>375940</v>
+        <v>376263</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>392807</v>
+        <v>392779</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9179671352367772</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.895381120985516</v>
+        <v>0.8961509908787302</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9355523362503674</v>
+        <v>0.9354866645050428</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>4352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1619</v>
+        <v>1593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9854</v>
+        <v>9261</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02723889787226125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01013006790434785</v>
+        <v>0.009972680932079392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06167250264782598</v>
+        <v>0.05795871460815186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5174,19 +5174,19 @@
         <v>15946</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10713</v>
+        <v>10716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22843</v>
+        <v>22857</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09117024322132429</v>
+        <v>0.0911702432213243</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06124744526378933</v>
+        <v>0.0612655104998979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1305995648894566</v>
+        <v>0.1306791256518847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -5195,19 +5195,19 @@
         <v>20299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13520</v>
+        <v>13643</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28060</v>
+        <v>28072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06064906871840658</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04039647474663522</v>
+        <v>0.04076140234678283</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08383823392900143</v>
+        <v>0.08387406455161506</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>155433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149931</v>
+        <v>150524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158166</v>
+        <v>158192</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9727611021277386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9383274973521739</v>
+        <v>0.9420412853918482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898699320956523</v>
+        <v>0.9900273190679205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -5245,19 +5245,19 @@
         <v>158963</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152066</v>
+        <v>152052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164196</v>
+        <v>164193</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9088297567786757</v>
+        <v>0.9088297567786758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8694004351105434</v>
+        <v>0.8693208743481152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9387525547362108</v>
+        <v>0.9387344895001022</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>452</v>
@@ -5266,19 +5266,19 @@
         <v>314395</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>306634</v>
+        <v>306622</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>321174</v>
+        <v>321051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9393509312815934</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9161617660709989</v>
+        <v>0.9161259354483852</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9596035252533648</v>
+        <v>0.9592385976532174</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>8874</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5203</v>
+        <v>4924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14013</v>
+        <v>14516</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0412565152827342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02418995029021248</v>
+        <v>0.0228906901630898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06514915522795926</v>
+        <v>0.06748792462350438</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -5391,19 +5391,19 @@
         <v>20582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14742</v>
+        <v>14703</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28426</v>
+        <v>28447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06968364165006673</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04990997810436693</v>
+        <v>0.04977849070326139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09623929645685539</v>
+        <v>0.09631034532906259</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -5412,19 +5412,19 @@
         <v>29456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21672</v>
+        <v>22501</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39939</v>
+        <v>38943</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05770538393439224</v>
+        <v>0.05770538393439223</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0424572736356583</v>
+        <v>0.04408034837631426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07824203625385978</v>
+        <v>0.07629185023234254</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>206215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>201076</v>
+        <v>200573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>209886</v>
+        <v>210165</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9587434847172658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9348508447720406</v>
+        <v>0.9325120753764956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9758100497097875</v>
+        <v>0.9771093098369104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>489</v>
@@ -5462,19 +5462,19 @@
         <v>274784</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266940</v>
+        <v>266919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>280624</v>
+        <v>280663</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9303163583499334</v>
+        <v>0.9303163583499332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9037607035431442</v>
+        <v>0.9036896546709374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9500900218956332</v>
+        <v>0.9502215092967384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>802</v>
@@ -5483,19 +5483,19 @@
         <v>480998</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>470515</v>
+        <v>471511</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>488782</v>
+        <v>487953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9422946160656077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9217579637461402</v>
+        <v>0.9237081497676575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9575427263643418</v>
+        <v>0.9559196516236858</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>33634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25682</v>
+        <v>25197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44040</v>
+        <v>44382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04694963273659322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03584906608638413</v>
+        <v>0.0351716875318175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06147504663500755</v>
+        <v>0.06195267699940079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>167</v>
@@ -5608,19 +5608,19 @@
         <v>87283</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75298</v>
+        <v>75041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103284</v>
+        <v>102665</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0966628465951305</v>
+        <v>0.09666284659513046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08338934389761554</v>
+        <v>0.08310521366104764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1143827910197786</v>
+        <v>0.1136978405885358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>220</v>
@@ -5629,19 +5629,19 @@
         <v>120918</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105160</v>
+        <v>106528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138388</v>
+        <v>138699</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07467009694370975</v>
+        <v>0.07467009694370977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0649392294568337</v>
+        <v>0.06578400305958419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08545863077793638</v>
+        <v>0.08565063442942365</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>682757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>672351</v>
+        <v>672009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>690709</v>
+        <v>691194</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9530503672634068</v>
+        <v>0.9530503672634069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9385249533649923</v>
+        <v>0.9380473230005992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9641509339136157</v>
+        <v>0.964828312468182</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1539</v>
@@ -5679,19 +5679,19 @@
         <v>815683</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>799682</v>
+        <v>800301</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>827668</v>
+        <v>827925</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9033371534048696</v>
+        <v>0.9033371534048695</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8856172089802209</v>
+        <v>0.8863021594114643</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9166106561023841</v>
+        <v>0.9168947863389523</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2513</v>
@@ -5700,19 +5700,19 @@
         <v>1498439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1480969</v>
+        <v>1480658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1514197</v>
+        <v>1512829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9253299030562901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9145413692220637</v>
+        <v>0.9143493655705763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9350607705431662</v>
+        <v>0.9342159969404158</v>
       </c>
     </row>
     <row r="18">
